--- a/LTUDJava-CQ2017-2018-NVKhiet-Chat App-Self-Evaluation.xlsx
+++ b/LTUDJava-CQ2017-2018-NVKhiet-Chat App-Self-Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/LearnDoc/University/Third-year/Java/Project/ChatSocketNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B3414A-306F-B842-A805-9B813F786AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B4F57-3767-D841-8EBE-5B5646379CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,12 +298,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -317,6 +319,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,361 +546,361 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3"/>
-    <col min="2" max="2" width="125.83203125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="3"/>
+    <col min="1" max="1" width="14.5" style="1"/>
+    <col min="2" max="2" width="125.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>44038</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+    <row r="20" spans="1:5" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14">
-        <v>3</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="14">
-        <v>2</v>
-      </c>
-      <c r="D21" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>4</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10">
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
-        <v>5</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="14">
-        <v>2</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
-        <v>6</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="14">
-        <v>3</v>
-      </c>
-      <c r="D24" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>7</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>8</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>9</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>10</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <f>IF(COUNTIF($C$9:$C$16, "Yes")=8, SUM(C19:C28), 0)</f>
         <v>12</v>
       </c>
-      <c r="D29" s="10">
-        <f>SUM(D19:D27)</f>
-        <v>8</v>
+      <c r="D29" s="8">
+        <f>SUM(D19:D28)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/LTUDJava-CQ2017-2018-NVKhiet-Chat App-Self-Evaluation.xlsx
+++ b/LTUDJava-CQ2017-2018-NVKhiet-Chat App-Self-Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/LearnDoc/University/Third-year/Java/Project/ChatSocketNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B4F57-3767-D841-8EBE-5B5646379CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832AC6A-7FB4-9840-AF06-DF62483D7540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
